--- a/libro_casos_prueba_ahorro_con_formulas.xlsx NUEVO.xlsx
+++ b/libro_casos_prueba_ahorro_con_formulas.xlsx NUEVO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\La F\Proyecto-main\Proyecto-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B1D98F-9483-4A79-9EE9-EAFC7A198277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E60F1-728E-4908-A499-1C39A139E9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Monto Inicial (P)</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Ahorro programado estandar</t>
+  </si>
+  <si>
+    <t>Tasa de interes en negativa</t>
+  </si>
+  <si>
+    <t>superior a 200 años</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,124 +675,166 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16000000</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1">
+        <f>IF(E11=0, B11 + C11*D11, B11*(1+E11)^D11 + C11*((1+E11)^D11-1)/E11)</f>
+        <v>10107091766.498297</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A12" s="2">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>205000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
+        <f>IF(E12=0, B12 + C12*D12, B12*(1+E12)^D12 + C12*((1+E12)^D12-1)/E12)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>1000000</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="1">
         <v>50000</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G14:G15" si="0">IF(E14=0, B14 + C14*D14, B14*(1+E14)^D14 + C14*((1+E14)^D14-1)/E14)</f>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G17" si="0">IF(E16=0, B16 + C16*D16, B16*(1+E16)^D16 + C16*((1+E16)^D16-1)/E16)</f>
         <v>1600000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="1">
         <v>1700000</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="1">
         <v>80000</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>0.01</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>2093858.8970000003</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="1">
         <v>1000000</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>0.01</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="1">
-        <f>IF(E16=0, B16 + C16*D16, B16*(1+E16)^D16 + C16*((1+E16)^D16-1)/E16)</f>
+      <c r="G18" s="1">
+        <f>IF(E18=0, B18 + C18*D18, B18*(1+E18)^D18 + C18*((1+E18)^D18-1)/E18)</f>
         <v>12682503.013196977</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
